--- a/开支记录.xlsx
+++ b/开支记录.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>德崧</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,17 @@
   </si>
   <si>
     <t>50A*1 25A*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇泰</t>
+  </si>
+  <si>
+    <t>宇泰UT-503 RS232转RS485带防雷光隔 RS422转换器 232转485转换器 *2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -66,6 +77,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="m/d;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,8 +116,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -405,81 +425,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="32.08984375" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.75" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>11.29</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>43433.29</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>668</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>11.29</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>43433.29</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1381</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>11.29</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>43433.29</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>628.33000000000004</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>43434.29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>586</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
+        <f>SUM(D2:D17,D17)</f>
+        <v>3263.33</v>
       </c>
     </row>
   </sheetData>
@@ -495,7 +543,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -508,7 +556,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
